--- a/ParkByeongHyeon/count결과(C).xlsx
+++ b/ParkByeongHyeon/count결과(C).xlsx
@@ -5043,52 +5043,52 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HSM1</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>ESM1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH35</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH77</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>CTP101</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH65</t>
         </is>
       </c>
     </row>
@@ -5100,52 +5100,52 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>CTP2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>OSH69</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>OSH72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>OSH67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>CTP66</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>OSH5</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>OSH68</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>CTP49</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>OSH70</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>CTP65</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CTP39</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CTP40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>CTP125</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>CTP63</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>CTP39의 2</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>CTP53</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>CTP24</t>
         </is>
       </c>
     </row>
@@ -5157,52 +5157,52 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CTP41</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>CTP39의 2</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>CTP2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>CTP12</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>CTP39</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CTP42</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>CTP66</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>CTP42</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>CTP35</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>OSH69</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>CTP39의 4</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>CTP40</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>CTP53</t>
         </is>
       </c>
     </row>
@@ -5214,52 +5214,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ESM33</t>
+          <t>OSH166</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>CTP101</t>
+          <t>OSH35</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH49</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>ESM7</t>
+          <t>OSH33</t>
         </is>
       </c>
     </row>
@@ -5271,52 +5271,52 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH77</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH155</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CTP138</t>
+          <t>OSH1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CTP16</t>
+          <t>OSH34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CTP44</t>
+          <t>OSH2</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CTP157</t>
+          <t>OSH4</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>CTP44의 2</t>
+          <t>OSH139</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>CMM46</t>
+          <t>OSH78</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>CTP40</t>
+          <t>OSH15</t>
         </is>
       </c>
     </row>
@@ -5328,52 +5328,52 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CTP157</t>
+          <t>OSH155</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CTP138</t>
+          <t>OSH34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CMM46</t>
+          <t>OSH61</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH139</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>HSM17</t>
+          <t>OSH28</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>HSM20</t>
+          <t>OSH12</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH66</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>HSM16</t>
+          <t>OSH63</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>CMM55</t>
+          <t>OSH77</t>
         </is>
       </c>
     </row>
@@ -5385,52 +5385,52 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>OSH12</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>OSH9</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>OSH10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ESM5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>CMM6</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>CTP3</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CTP112</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>CTP62의 2</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>CTP158</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>CMM23의 4</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CTP161</t>
+          <t>OSH8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CMM8</t>
+          <t>OSH11</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>CTP55</t>
+          <t>OSH56</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CTP39의 2</t>
+          <t>OSH112</t>
         </is>
       </c>
     </row>
@@ -5442,52 +5442,52 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>OSH159</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>OSH9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>CTP4</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>CTP82</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>ESM38</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>CTP96</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>CTP103</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ESM5</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH103</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>CMM23의 4</t>
+          <t>OSH140</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>CMM10</t>
+          <t>OSH48</t>
         </is>
       </c>
     </row>
@@ -5499,52 +5499,52 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>CTP19</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OSH12</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>OSH8</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>ESM38</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>OSH7</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>OSH11</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>ESM21</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CTP103</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>CMM48</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>CTP112</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>CTP147</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>CTP158</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>HSM17</t>
+          <t>OSH65</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>CTP141</t>
+          <t>OSH103</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH10</t>
         </is>
       </c>
     </row>
@@ -5556,52 +5556,52 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CTP112</t>
+          <t>OSH57</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH56</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CTP161</t>
+          <t>OSH55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH64</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CTP158</t>
+          <t>OSH54</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CTP141</t>
+          <t>OSH7</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>CTP127</t>
+          <t>OSH66</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>CTP105</t>
+          <t>OSH159</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>CTP121</t>
+          <t>OSH63</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>CTP104</t>
+          <t>OSH8</t>
         </is>
       </c>
     </row>
@@ -5613,52 +5613,52 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>ESM13</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>CMM25</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>CMM24</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>OSH64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>OSH12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>OSH30</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>OSH4</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>OSH9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>CMM23의 2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>HSM6</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>ESM15</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>CTP10</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>CMM23</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>CTP142</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>CTP107</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH1</t>
         </is>
       </c>
     </row>
@@ -5670,52 +5670,52 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>OSH7</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>OSH9</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>OSH11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>OSH158</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>CTP75</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>OSH8</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>OSH6</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>OSH10</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>ESM31</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CTP156</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>HSM17</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>HSM3의 2</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>CMM23의 2</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>CTP109</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>CTP74</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>CTP41</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>CTP12</t>
+          <t>OSH23</t>
         </is>
       </c>
     </row>
@@ -5727,52 +5727,52 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH53</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CTP126</t>
+          <t>OSH55</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CTP147</t>
+          <t>OSH127</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CTP128</t>
+          <t>OSH36</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CTP43</t>
+          <t>OSH8</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CTP5</t>
+          <t>OSH125</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CTP161</t>
+          <t>OSH54</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>CMM46</t>
+          <t>OSH38</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH40</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH126</t>
         </is>
       </c>
     </row>
@@ -5784,52 +5784,52 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CTP62의 2</t>
+          <t>OSH35</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH49</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH4</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>CTP62</t>
+          <t>OSH50</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>CTP64</t>
+          <t>OSH166</t>
         </is>
       </c>
     </row>
@@ -5841,52 +5841,52 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH19</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CTP62의 2</t>
+          <t>OSH62</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CTP137</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ESM26</t>
+          <t>OSH20</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH27</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH18</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ESM5</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>ESM41</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH16</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CTP62</t>
+          <t>OSH22</t>
         </is>
       </c>
     </row>
@@ -5898,52 +5898,52 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>OSH19</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>OSH20</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CTP64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>OSH15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>OSH25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>OSH27</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>ESM26</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>CTP62의 2</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>CTP62</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>CTP39의 4</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>CTP49</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>CTP42</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ESM43</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>CTP165</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>CTP39의 2</t>
+          <t>OSH17</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>CTP81</t>
+          <t>OSH62</t>
         </is>
       </c>
     </row>
@@ -5955,52 +5955,52 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>OSH19</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>OSH18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>OSH20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>OSH15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>HSM15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>OSH21</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>OSH16</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>ESM22</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>ESM25</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CTP96</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>CTP103</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>ESM42</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>CTP100</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>CTP140</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>ESM24</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>ESM43</t>
+          <t>OSH49</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>CTP64</t>
+          <t>OSH25</t>
         </is>
       </c>
     </row>
@@ -6012,52 +6012,52 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH22</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH19</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH17</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH20</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH15</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CTP41</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CTP112</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH49</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>CTP52의 2</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>CTP165</t>
+          <t>OSH21</t>
         </is>
       </c>
     </row>
@@ -6069,52 +6069,52 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH18</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH20</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH15</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH17</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>CTP62의 2</t>
+          <t>OSH27</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>CTP62</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>ESM26</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH22</t>
         </is>
       </c>
     </row>
@@ -6126,52 +6126,52 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ESM26</t>
+          <t>OSH19</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH27</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH15</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CTP62의 2</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH16</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>CTP165</t>
+          <t>OSH18</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH21</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH48</t>
         </is>
       </c>
     </row>
@@ -6183,52 +6183,52 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH48</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>OSH96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>OSH100</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>OSH33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>OSH20</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>OSH140</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>OSH19</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>OSH74</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>CTP52의 2</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>CTP128</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>CTP136</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>CTP120</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>CTP121</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>CTP135</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>CTP61</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>CTP126</t>
         </is>
       </c>
     </row>
@@ -6240,52 +6240,52 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH18</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH19</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH15</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH49</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>CTP112</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH20</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>CTP157</t>
+          <t>OSH35</t>
         </is>
       </c>
     </row>
@@ -6297,52 +6297,52 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH166</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CTP101</t>
+          <t>OSH17</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ESM6</t>
+          <t>OSH19</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CTP64</t>
+          <t>OSH84</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH116</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH45</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>CTP94</t>
+          <t>OSH37</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH25</t>
         </is>
       </c>
     </row>
@@ -6354,52 +6354,52 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH35</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH49</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH19</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>CTP64</t>
+          <t>OSH4</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH27</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH31</t>
         </is>
       </c>
     </row>
@@ -6411,52 +6411,52 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH19</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH20</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CTP62의 2</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH15</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>CTP62</t>
+          <t>OSH33</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>HSM1</t>
+          <t>OSH35</t>
         </is>
       </c>
     </row>
@@ -6468,52 +6468,52 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CTP64</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH27</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH19</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH35</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH20</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>CTP62의 2</t>
+          <t>OSH49</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>CTP62</t>
+          <t>OSH15</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH47</t>
         </is>
       </c>
     </row>
@@ -6525,52 +6525,52 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HSM1</t>
+          <t>OSH19</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CTP62의 2</t>
+          <t>OSH20</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH15</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ESM4</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>ESM1</t>
+          <t>OSH35</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH29</t>
         </is>
       </c>
     </row>
@@ -6582,52 +6582,52 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>CTP73</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>CTP78</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>ESM34</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>ESM4</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>OSH27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>OSH25</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>HSM31</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>HSM17</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>HSM36</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>HSM39</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>HSM2</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>HSM1</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>HSM12</t>
+          <t>HSM35</t>
         </is>
       </c>
     </row>
@@ -6639,52 +6639,52 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH31</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH33</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>HSM28</t>
+          <t>OSH35</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH37</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH64</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH50</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH24</t>
         </is>
       </c>
     </row>
@@ -6696,52 +6696,52 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CTP20의 5</t>
+          <t>OSH31</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>HSM28</t>
+          <t>OSH33</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH64</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>CTP20의 2</t>
+          <t>OSH19</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>CTP165</t>
+          <t>OSH140</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>ESM42</t>
+          <t>OSH50</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH166</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>CTP20의 4</t>
+          <t>OSH25</t>
         </is>
       </c>
     </row>
@@ -6753,52 +6753,52 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HSM28</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH33</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CTP20의 5</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>CTP65</t>
+          <t>OSH35</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>CTP20의 2</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH64</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH26</t>
         </is>
       </c>
     </row>
@@ -6810,52 +6810,52 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH33</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH31</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH20</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH19</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>CTP64</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH48</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH24</t>
         </is>
       </c>
     </row>
@@ -6867,52 +6867,52 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH48</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH31</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CTP165</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CTP121</t>
+          <t>OSH30</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>CTP20의 5</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH47</t>
         </is>
       </c>
     </row>
@@ -6924,52 +6924,52 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH27</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CTP155</t>
+          <t>OSH19</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CTP157</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ESM4</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>HSM1</t>
+          <t>OSH6</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ESM1</t>
+          <t>OSH15</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>HSM16</t>
+          <t>OSH18</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>ESM43</t>
+          <t>OSH37</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ESM34</t>
+          <t>OSH28</t>
         </is>
       </c>
     </row>
@@ -6981,52 +6981,52 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH50</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH49</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>CTP165</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>CTP175</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH14</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH116</t>
         </is>
       </c>
     </row>
@@ -7038,52 +7038,52 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CTP105</t>
+          <t>OSH127</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH105</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH38</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH43</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH53</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH40</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>CTP106</t>
+          <t>OSH132</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>CTP157</t>
+          <t>OSH131</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>CTP50</t>
+          <t>OSH42</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH134</t>
         </is>
       </c>
     </row>
@@ -7095,52 +7095,52 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH35</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH31</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH64</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>CTP101</t>
+          <t>OSH25</t>
         </is>
       </c>
     </row>
@@ -7152,52 +7152,52 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH51</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HSM27</t>
+          <t>OSH36</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH54</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH40</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ESM16</t>
+          <t>OSH139</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH52</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH53</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>ESM15</t>
+          <t>OSH55</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH63</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>HSM24</t>
+          <t>OSH81</t>
         </is>
       </c>
     </row>
@@ -7209,52 +7209,52 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH40</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH51</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH123</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH139</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH63</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>CMM46</t>
+          <t>OSH53</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>CTP107</t>
+          <t>OSH81</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH38</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH54</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>CTP130</t>
+          <t>OSH65</t>
         </is>
       </c>
     </row>
@@ -7266,52 +7266,52 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH63</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH81</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CMM46</t>
+          <t>OSH80</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH76</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>HSM27</t>
+          <t>OSH38</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH36</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH139</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>ESM15</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH41</t>
         </is>
       </c>
     </row>
@@ -7323,52 +7323,52 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH40</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH131</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH132</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CTP130</t>
+          <t>OSH36</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH38</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>CTP133</t>
+          <t>OSH109</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>CTP157</t>
+          <t>OSH52</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>CTP141</t>
+          <t>OSH54</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>CTP129</t>
+          <t>OSH139</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH63</t>
         </is>
       </c>
     </row>
@@ -7380,52 +7380,52 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CTP106</t>
+          <t>OSH43</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CTP104</t>
+          <t>OSH105</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CTP107</t>
+          <t>OSH50</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH36</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH106</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH104</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH107</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH45</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH59</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>CMM23</t>
+          <t>OSH44</t>
         </is>
       </c>
     </row>
@@ -7437,52 +7437,52 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CTP106</t>
+          <t>OSH42</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CTP104</t>
+          <t>OSH105</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CTP107</t>
+          <t>OSH106</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH104</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>CTP121</t>
+          <t>OSH53</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>CTP127</t>
+          <t>OSH36</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH57</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH107</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>CTP112</t>
+          <t>OSH50</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>CTP117</t>
+          <t>OSH58</t>
         </is>
       </c>
     </row>
@@ -7494,52 +7494,52 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH45</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH46</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CTP101</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH49</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>ESM15</t>
+          <t>OSH166</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>CMM23</t>
+          <t>OSH37</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH162</t>
         </is>
       </c>
     </row>
@@ -7551,52 +7551,52 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH46</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH44</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH166</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>CTP94</t>
+          <t>OSH84</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>CTP101</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH49</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH35</t>
         </is>
       </c>
     </row>
@@ -7608,52 +7608,52 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH45</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH44</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CTP94</t>
+          <t>OSH84</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH50</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH166</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CTP92</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>CTP101</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>CTP165</t>
+          <t>OSH89</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH91</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH86</t>
         </is>
       </c>
     </row>
@@ -7665,52 +7665,52 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH48</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH35</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CTP135</t>
+          <t>OSH33</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH50</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>CTP133</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH49</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH29</t>
         </is>
       </c>
     </row>
@@ -7722,52 +7722,52 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CTP135</t>
+          <t>OSH33</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>CTP121</t>
+          <t>OSH21</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>CTP120</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH135</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>CTP126</t>
+          <t>OSH20</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>CTP165</t>
+          <t>OSH19</t>
         </is>
       </c>
     </row>
@@ -7779,52 +7779,52 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH50</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH35</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CTP101</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH19</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>CTP62의 2</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH14</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH15</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH18</t>
         </is>
       </c>
     </row>
@@ -7836,52 +7836,52 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH49</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH35</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH166</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH37</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH33</t>
         </is>
       </c>
     </row>
@@ -7893,52 +7893,52 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH52</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH54</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH55</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH38</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH139</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>CTP126</t>
+          <t>OSH53</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH65</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>CTP128</t>
+          <t>OSH63</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>CTP127</t>
+          <t>OSH125</t>
         </is>
       </c>
     </row>
@@ -7950,52 +7950,52 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH51</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH55</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH54</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH139</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH38</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH15</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>CTP128</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH63</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>CTP157</t>
+          <t>OSH53</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>CMM17</t>
+          <t>OSH125</t>
         </is>
       </c>
     </row>
@@ -8007,52 +8007,52 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH40</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH81</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH80</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH43</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>CMM44의 2</t>
+          <t>OSH51</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>CTP127</t>
+          <t>OSH55</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>CMM46</t>
+          <t>OSH36</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>CTP105</t>
+          <t>OSH13</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH38</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>CMM17</t>
+          <t>OSH76</t>
         </is>
       </c>
     </row>
@@ -8064,52 +8064,52 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH55</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH57</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH51</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CTP159</t>
+          <t>OSH56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH38</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>CTP127</t>
+          <t>OSH52</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH40</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH53</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>CTP107</t>
+          <t>OSH49</t>
         </is>
       </c>
     </row>
@@ -8121,52 +8121,52 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CTP127</t>
+          <t>OSH54</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CTP126</t>
+          <t>OSH51</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH56</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH57</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH52</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>CTP128</t>
+          <t>OSH53</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>CTP159</t>
+          <t>OSH65</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>CMM17</t>
+          <t>OSH43</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH58</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>CTP107</t>
+          <t>OSH38</t>
         </is>
       </c>
     </row>
@@ -8178,52 +8178,52 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CTP120</t>
+          <t>OSH54</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CTP67</t>
+          <t>OSH57</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CTP159</t>
+          <t>OSH55</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CTP112</t>
+          <t>OSH49</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ESM29</t>
+          <t>OSH141</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH10</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH120</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>CTP127</t>
+          <t>OSH13</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>CTP121</t>
+          <t>OSH170</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>HSM22의 2</t>
+          <t>OSH38</t>
         </is>
       </c>
     </row>
@@ -8235,52 +8235,52 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH54</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CTP121</t>
+          <t>OSH56</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CTP112</t>
+          <t>OSH55</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH43</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>CTP141</t>
+          <t>OSH10</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>CTP104</t>
+          <t>OSH30</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>CTP107</t>
+          <t>OSH58</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>CTP127</t>
+          <t>OSH134</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>CTP106</t>
+          <t>OSH42</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH131</t>
         </is>
       </c>
     </row>
@@ -8292,52 +8292,52 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CTP117</t>
+          <t>OSH59</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH112</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CTP127</t>
+          <t>OSH60</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH117</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH65</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>CTP161</t>
+          <t>OSH125</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH43</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH30</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH127</t>
         </is>
       </c>
     </row>
@@ -8349,52 +8349,52 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH58</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH112</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>CTP117</t>
+          <t>OSH60</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH166</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH114</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH50</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>CTP115</t>
+          <t>OSH65</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>CTP127</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH35</t>
         </is>
       </c>
     </row>
@@ -8406,52 +8406,52 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CTP163</t>
+          <t>OSH58</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CTP175</t>
+          <t>OSH59</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH112</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CTP171</t>
+          <t>OSH117</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CTP168</t>
+          <t>CMM62</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>CTP169</t>
+          <t>OSH65</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>CTP117</t>
+          <t>OSH66</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>CMM3</t>
+          <t>OSH166</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>CMM62</t>
+          <t>CMM21</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>CTP165</t>
+          <t>OSH125</t>
         </is>
       </c>
     </row>
@@ -8463,52 +8463,52 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CTP133</t>
+          <t>OSH6</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>HSM17</t>
+          <t>OSH38</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CTP158</t>
+          <t>OSH40</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH13</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CTP152</t>
+          <t>OSH17</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH66</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH41</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>CTP138</t>
+          <t>OSH53</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>CTP161</t>
+          <t>OSH51</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>CMM23의 2</t>
+          <t>OSH18</t>
         </is>
       </c>
     </row>
@@ -8520,52 +8520,52 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH15</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH19</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH20</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>CTP62</t>
+          <t>OSH27</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>ESM33</t>
+          <t>OSH49</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>CTP64</t>
         </is>
       </c>
     </row>
@@ -8577,52 +8577,52 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH64</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH40</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ESM15</t>
+          <t>OSH66</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH76</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>HSM27</t>
+          <t>OSH81</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH65</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH62</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH139</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH49</t>
         </is>
       </c>
     </row>
@@ -8634,52 +8634,52 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH63</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH30</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH31</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH35</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH65</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>CTP115</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>ESM13</t>
+          <t>OSH37</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH33</t>
         </is>
       </c>
     </row>
@@ -8691,52 +8691,52 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH64</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH63</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH59</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH51</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH35</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH111</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>CTP115</t>
+          <t>OSH66</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>CMM48</t>
+          <t>OSH58</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH114</t>
         </is>
       </c>
     </row>
@@ -8748,52 +8748,52 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH63</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CMM31</t>
+          <t>OSH64</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>HSM27</t>
+          <t>OSH65</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CTP155</t>
+          <t>OSH10</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>CTP159</t>
+          <t>OSH53</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>CMM46</t>
+          <t>OSH125</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>HSM36</t>
+          <t>OSH171</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>CTP161</t>
+          <t>OSH6</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH40</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>CTP157</t>
+          <t>OSH139</t>
         </is>
       </c>
     </row>
@@ -8805,52 +8805,52 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>OSH68</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>OSH69</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>CTP65</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>OSH72</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>CTP63</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>OSH71</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>OSH70</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>CTP66</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>CTP49</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>CTP2</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>CTP39</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>CTP48</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>CTP62</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>CTP39의 2</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>CTP40</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>CTP46</t>
         </is>
       </c>
     </row>
@@ -8862,52 +8862,52 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>OSH67</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CTP65</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>OSH72</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>CTP63</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>OSH69</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>CTP66</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>OSH70</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>CTP49</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>CTP62</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>CTP2</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>CTP65의 2</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>CTP40</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>CTP64</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>CTP46</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>CTP62의 2</t>
         </is>
       </c>
     </row>
@@ -8919,52 +8919,52 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>OSH70</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>OSH71</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>CTP66</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>OSH67</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>CTP49</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>CTP65</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>CTP2</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>CTP63</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>CTP46</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>CTP65의 2</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>CTP56</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>CTP39</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>CTP40</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>CTP44</t>
         </is>
       </c>
     </row>
@@ -8976,52 +8976,52 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>OSH69</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>OSH71</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>CTP66</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>CTP49</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>OSH67</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>CTP65</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>CTP65의 2</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>CTP46</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>CTP40</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>CTP63</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>CTP2</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>CTP56</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>CTP44</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>CTP39</t>
         </is>
       </c>
     </row>
@@ -9033,52 +9033,52 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>OSH69</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>OSH70</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>OSH67</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>CTP66</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>CTP49</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>CTP48</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>CTP44</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>CTP65의 2</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>CTP65</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>CTP39</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>CTP2</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>CTP46</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>CTP40</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>CTP24</t>
         </is>
       </c>
     </row>
@@ -9090,52 +9090,52 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>CTP63</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>OSH67</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>OSH68</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>CTP65</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>CTP56</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>OSH69</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>CTP66</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>CTP91</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
         <is>
           <t>CTP62</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>CTP39의 2</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>CTP2</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>CTP49</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>CTP62의 2</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>CTP44</t>
-        </is>
-      </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>CTP64</t>
+          <t>OSH70</t>
         </is>
       </c>
     </row>
@@ -9147,52 +9147,52 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>OSH74</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CTP2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>CTP66</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>OSH70</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>OSH69</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>CTP49</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
         <is>
           <t>CTP65</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>CTP49</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>CTP24</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>CTP39</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>CTP40</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>CTP46</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>CTP38</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>CTP147</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>CTP23</t>
         </is>
       </c>
     </row>
@@ -9204,52 +9204,52 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH48</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>CTP120</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CTP126</t>
+          <t>OSH21</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>CTP135</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>CTP61</t>
+          <t>OSH140</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>CTP121</t>
+          <t>OSH73</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>CTP159</t>
+          <t>OSH120</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>CTP128</t>
+          <t>OSH33</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>CTP136</t>
+          <t>OSH126</t>
         </is>
       </c>
     </row>
@@ -9261,52 +9261,52 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>OSH35</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>OSH68</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>OSH67</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>OSH24</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>OSH72</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>CTP63</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
           <t>CTP65</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>OSH64</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>CTP64</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>CTP66</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>CTP62</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>CTP2</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>CTP49</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>CTP5</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>CTP91</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>CTP65의 2</t>
-        </is>
-      </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>CTP46</t>
+          <t>OSH69</t>
         </is>
       </c>
     </row>
@@ -9318,52 +9318,52 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>OSH81</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>OSH63</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>OSH67</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>OSH68</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>CTP65</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>CTP40</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>OSH40</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>CTP63</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>CTP64</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>CTP62</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>CTP66</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>CTP41</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>CTP49</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>CTP54</t>
-        </is>
-      </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>CTP2</t>
+          <t>OSH69</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>ESM15</t>
+          <t>OSH72</t>
         </is>
       </c>
     </row>
@@ -9375,52 +9375,52 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH5</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH4</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>CTP138</t>
+          <t>OSH1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CTP155</t>
+          <t>OSH40</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH116</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH139</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>CTP115</t>
+          <t>OSH111</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>CTP149</t>
+          <t>OSH64</t>
         </is>
       </c>
     </row>
@@ -9432,52 +9432,52 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CTP171</t>
+          <t>OSH81</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CTP175</t>
+          <t>OSH40</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ESM52</t>
+          <t>OSH63</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CTP165</t>
+          <t>OSH5</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>CMM3</t>
+          <t>OSH76</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>CTP169</t>
+          <t>OSH49</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>CTP163</t>
+          <t>OSH77</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH4</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>CTP170</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>ESM42</t>
+          <t>OSH80</t>
         </is>
       </c>
     </row>
@@ -9489,52 +9489,52 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH32</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH25</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>CTP142</t>
+          <t>OSH35</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH65</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH64</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>ESM33</t>
+          <t>OSH26</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>CTP115</t>
+          <t>OSH31</t>
         </is>
       </c>
     </row>
@@ -9546,52 +9546,52 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH40</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH81</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH53</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH76</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>HSM27</t>
+          <t>OSH43</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>CTP105</t>
+          <t>OSH38</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>CTP107</t>
+          <t>OSH63</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>CTP92</t>
+          <t>OSH36</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH42</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>CTP108</t>
+          <t>CMM46</t>
         </is>
       </c>
     </row>
@@ -9603,52 +9603,52 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>HSM27</t>
+          <t>OSH76</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH40</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH80</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ESM15</t>
+          <t>OSH63</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH53</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>CTP92</t>
+          <t>OSH78</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>ESM17</t>
+          <t>OSH38</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>CTP40</t>
+          <t>OSH49</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>HSM24</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>CTP77</t>
+          <t>CMM46</t>
         </is>
       </c>
     </row>
@@ -9660,52 +9660,52 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CTP102</t>
+          <t>OSH121</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>OSH102</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>OSH33</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>ESM26</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>CTP145</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>OSH145</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>ESM47</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>ESM27</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>CTP154</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>OSH154</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>CTP26</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>CTP27</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>HSM16</t>
-        </is>
-      </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH21</t>
         </is>
       </c>
     </row>
@@ -9717,52 +9717,52 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH84</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CTP106</t>
+          <t>OSH86</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH101</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CTP104</t>
+          <t>OSH87</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>HSM20</t>
+          <t>OSH85</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>CTP105</t>
+          <t>OSH89</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH103</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH106</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>CTP92</t>
+          <t>OSH93</t>
         </is>
       </c>
     </row>
@@ -9774,52 +9774,52 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH87</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH86</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>CTP92</t>
+          <t>OSH85</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH89</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH101</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH83</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH93</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>CTP94</t>
+          <t>OSH92</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH103</t>
         </is>
       </c>
     </row>
@@ -9831,52 +9831,52 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH86</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH87</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH84</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CTP92</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH83</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH89</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH90</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>CTP64</t>
+          <t>OSH101</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>CTP115</t>
+          <t>OSH91</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>CTP59</t>
+          <t>OSH103</t>
         </is>
       </c>
     </row>
@@ -9888,52 +9888,52 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH87</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>OSH84</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>OSH85</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>OSH83</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>OSH88</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>OSH89</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>OSH101</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>OSH103</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>OSH91</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
           <t>CTP59</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>CTP93</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>CTP92</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>CTP96</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>CTP95</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>CTP164</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>CTP97</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>CTP166</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>CTP64</t>
         </is>
       </c>
     </row>
@@ -9945,52 +9945,52 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CTP92</t>
+          <t>OSH84</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH86</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH85</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH101</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH89</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH83</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>CTP94</t>
+          <t>OSH92</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH95</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>CTP59</t>
+          <t>OSH93</t>
         </is>
       </c>
     </row>
@@ -10002,52 +10002,52 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH48</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH84</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CTP120</t>
+          <t>OSH21</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH86</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>CTP165</t>
+          <t>OSH33</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>CTP135</t>
+          <t>OSH87</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>CTP126</t>
+          <t>OSH85</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>CTP121</t>
+          <t>OSH103</t>
         </is>
       </c>
     </row>
@@ -10059,52 +10059,52 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CTP101</t>
+          <t>OSH92</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH91</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH90</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH84</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH87</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH101</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>CTP98</t>
+          <t>OSH86</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH83</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH85</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>CTP94</t>
+          <t>OSH93</t>
         </is>
       </c>
     </row>
@@ -10116,52 +10116,52 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CTP101</t>
+          <t>OSH91</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH92</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH89</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>CTP98</t>
+          <t>OSH85</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH101</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>CTP165</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH84</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH87</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>CTP115</t>
+          <t>OSH98</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH166</t>
         </is>
       </c>
     </row>
@@ -10173,52 +10173,52 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CTP101</t>
+          <t>OSH90</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH92</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>CTP98</t>
+          <t>OSH89</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH101</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH84</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH86</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH87</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH85</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH98</t>
         </is>
       </c>
     </row>
@@ -10230,52 +10230,52 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CTP101</t>
+          <t>OSH89</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH90</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH91</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH101</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>CTP98</t>
+          <t>OSH87</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH84</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH95</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH93</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>CTP165</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>CTP94</t>
+          <t>OSH98</t>
         </is>
       </c>
     </row>
@@ -10287,52 +10287,52 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH95</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH97</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>CTP98</t>
+          <t>OSH98</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CTP94</t>
+          <t>OSH94</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>CTP99</t>
+          <t>OSH99</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH89</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>HSM8</t>
+          <t>OSH84</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>CTP92</t>
+          <t>OSH103</t>
         </is>
       </c>
     </row>
@@ -10344,52 +10344,52 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH93</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH95</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>CTP98</t>
+          <t>OSH98</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH97</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH103</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>CTP99</t>
+          <t>OSH84</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>HSM8</t>
+          <t>OSH99</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH89</t>
         </is>
       </c>
     </row>
@@ -10401,52 +10401,52 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH93</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH97</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>CTP98</t>
+          <t>OSH98</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CTP94</t>
+          <t>OSH94</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH87</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>CTP92</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>CTP99</t>
+          <t>OSH89</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH99</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH92</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>HSM8</t>
+          <t>OSH103</t>
         </is>
       </c>
     </row>
@@ -10458,52 +10458,52 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH97</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH48</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>CTP98</t>
+          <t>OSH103</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH21</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>CTP94</t>
+          <t>OSH93</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH98</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>CTP120</t>
+          <t>OSH33</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>CTP61</t>
+          <t>OSH95</t>
         </is>
       </c>
     </row>
@@ -10515,52 +10515,52 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH93</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH95</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>CTP98</t>
+          <t>OSH98</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH103</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>CTP94</t>
+          <t>OSH94</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>CTP99</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>CMM24</t>
+          <t>OSH99</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>CTP92</t>
+          <t>OSH84</t>
         </is>
       </c>
     </row>
@@ -10572,52 +10572,52 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CTP99</t>
+          <t>OSH99</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH93</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH95</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH97</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>CTP94</t>
+          <t>OSH94</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH103</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>HSM8</t>
+          <t>OSH89</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>CMM24</t>
+          <t>OSH166</t>
         </is>
       </c>
     </row>
@@ -10629,37 +10629,37 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CTP98</t>
+          <t>OSH98</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH93</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH95</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH97</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>CTP94</t>
+          <t>OSH94</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -10669,12 +10669,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
+          <t>OSH163</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
           <t>CMM24</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>ESM18</t>
         </is>
       </c>
     </row>
@@ -10686,52 +10686,52 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CTP98</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH48</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH98</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH97</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>CTP99</t>
+          <t>OSH21</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH33</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH103</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>CTP94</t>
+          <t>OSH93</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH74</t>
         </is>
       </c>
     </row>
@@ -10743,52 +10743,52 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CTP92</t>
+          <t>OSH87</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH84</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CTP95</t>
+          <t>OSH89</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CTP103</t>
+          <t>OSH92</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH83</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>HSM8</t>
+          <t>OSH86</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>CTP98</t>
+          <t>OSH91</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH85</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH90</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH93</t>
         </is>
       </c>
     </row>
@@ -10800,52 +10800,52 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CTP158</t>
+          <t>OSH82</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CTP154</t>
+          <t>OSH158</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CTP145</t>
+          <t>OSH154</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
+          <t>OSH145</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
           <t>ESM27</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>CTP121</t>
-        </is>
-      </c>
       <c r="G104" t="inlineStr">
         <is>
+          <t>OSH163</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>OSH121</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
           <t>CTP27</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>OSH33</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>ESM47</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>HSM16</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>ESM26</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>CTP26</t>
         </is>
       </c>
     </row>
@@ -10857,52 +10857,52 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CTP97</t>
+          <t>OSH97</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>CTP93</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
+          <t>OSH93</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>OSH84</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
           <t>ESM38</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>CTP95</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>CTP98</t>
-        </is>
-      </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>CTP94</t>
+          <t>OSH86</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>CTP64</t>
+          <t>OSH95</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>ESM21</t>
+          <t>OSH48</t>
         </is>
       </c>
     </row>
@@ -10914,22 +10914,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CTP105</t>
+          <t>OSH105</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CTP106</t>
+          <t>OSH106</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CTP107</t>
+          <t>OSH107</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH109</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -10944,22 +10944,22 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
+          <t>OSH43</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
           <t>CMM16</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>CTP108</t>
-        </is>
-      </c>
       <c r="J106" t="inlineStr">
         <is>
+          <t>OSH108</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
           <t>CMM38</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>CMM32</t>
         </is>
       </c>
     </row>
@@ -10971,52 +10971,52 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CTP106</t>
+          <t>OSH106</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CTP104</t>
+          <t>OSH104</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CTP107</t>
+          <t>OSH43</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>CTP127</t>
+          <t>OSH107</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>CTP136</t>
+          <t>OSH36</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
+          <t>OSH42</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>OSH127</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>OSH136</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
           <t>CMM16</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>CMM33</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>CMM13</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>CTP109</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>CTP128</t>
         </is>
       </c>
     </row>
@@ -11028,47 +11028,47 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CTP105</t>
+          <t>OSH105</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CTP104</t>
+          <t>OSH104</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>CTP107</t>
+          <t>OSH107</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CTP127</t>
+          <t>OSH43</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>CTP136</t>
+          <t>OSH83</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>CMM13</t>
+          <t>OSH42</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>CTP121</t>
+          <t>OSH36</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>CMM33</t>
+          <t>OSH136</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>CMM34의 2</t>
+          <t>OSH127</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -11085,52 +11085,52 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CTP104</t>
+          <t>OSH104</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CTP106</t>
+          <t>OSH106</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>CTP105</t>
+          <t>OSH105</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
+          <t>OSH43</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>OSH42</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
           <t>CMM13</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>CTP131</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>OSH131</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>CMM25</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>OSH109</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>CMM38</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>CTP128</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>CTP109</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>CMM26</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>CMM25</t>
         </is>
       </c>
     </row>
@@ -11142,7 +11142,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH109</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -11167,27 +11167,27 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
+          <t>CMM34의 2</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
           <t>CMM16</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>CMM5</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>CMM49</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>CMM27</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>CMM32</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>CMM38</t>
         </is>
       </c>
     </row>
@@ -11199,39 +11199,39 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CTP108</t>
+          <t>OSH108</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>CMM34의 2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>CMM13</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>CMM34의 2</t>
-        </is>
-      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CTP117</t>
+          <t>CMM16</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>CMM16</t>
+          <t>OSH117</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
+          <t>CMM2</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
           <t>CMM33</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>CMM2</t>
-        </is>
-      </c>
       <c r="I111" t="inlineStr">
         <is>
           <t>CMM35</t>
@@ -11244,7 +11244,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>CMM23</t>
+          <t>CMM49</t>
         </is>
       </c>
     </row>
@@ -11256,22 +11256,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH113</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH114</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH111</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CTP115</t>
+          <t>OSH115</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -11281,27 +11281,27 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH116</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
+          <t>CMM50</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
           <t>CMM27</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>CMM2</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>CMM50</t>
-        </is>
-      </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>CMM5</t>
+          <t>CMM49</t>
         </is>
       </c>
     </row>
@@ -11313,52 +11313,52 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH114</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH110</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH116</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH113</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>CTP115</t>
+          <t>OSH115</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH162</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
+          <t>OSH35</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
           <t>CMM50</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>CMM9</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>CMM27</t>
-        </is>
-      </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>CTP112</t>
+          <t>OSH175</t>
         </is>
       </c>
     </row>
@@ -11370,52 +11370,52 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH58</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CTP117</t>
+          <t>OSH113</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH117</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH59</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH110</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>CTP115</t>
+          <t>OSH60</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH114</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH116</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>CTP108</t>
+          <t>OSH115</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH166</t>
         </is>
       </c>
     </row>
@@ -11427,52 +11427,52 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH110</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH114</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH111</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>CTP115</t>
+          <t>OSH115</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH116</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>CTP112</t>
+          <t>OSH112</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH162</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>CMM50</t>
+          <t>OSH175</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH166</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>CMM49</t>
+          <t>OSH50</t>
         </is>
       </c>
     </row>
@@ -11484,52 +11484,52 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH110</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH111</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH113</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH116</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>CTP115</t>
+          <t>OSH115</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
+          <t>OSH35</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>OSH29</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>OSH32</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
           <t>CMM50</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>CTP162</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>CTP112</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>CMM9</t>
-        </is>
-      </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>CMM5</t>
+          <t>OSH47</t>
         </is>
       </c>
     </row>
@@ -11541,52 +11541,52 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH114</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH111</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH110</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH113</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>CTP116</t>
+          <t>OSH116</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>CTP112</t>
+          <t>OSH112</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
+          <t>CMM50</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>OSH35</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
           <t>CMM9</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>CTP117</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>CMM50</t>
-        </is>
-      </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>CMM16</t>
+          <t>OSH117</t>
         </is>
       </c>
     </row>
@@ -11598,52 +11598,52 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CTP111</t>
+          <t>OSH111</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CTP114</t>
+          <t>OSH114</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH113</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>CTP113</t>
+          <t>OSH110</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>CTP115</t>
+          <t>OSH35</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>CTP162</t>
+          <t>OSH115</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>CTP112</t>
+          <t>OSH162</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>CMM52</t>
+          <t>OSH24</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>CTP166</t>
+          <t>OSH50</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>CTP18</t>
+          <t>OSH32</t>
         </is>
       </c>
     </row>
@@ -11665,37 +11665,37 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>CTP112</t>
+          <t>CMM2</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>CMM2</t>
+          <t>CMM49</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>CTP118</t>
+          <t>OSH112</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>CMM49</t>
+          <t>OSH118</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
+          <t>CMM54</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
           <t>CMM9</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>CTP109</t>
-        </is>
-      </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>CMM54</t>
+          <t>OSH109</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -11717,12 +11717,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CTP117</t>
+          <t>CMM50</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>CMM50</t>
+          <t>OSH117</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -11737,14 +11737,14 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
+          <t>CMM49</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
           <t>CMM18</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>CMM49</t>
-        </is>
-      </c>
       <c r="I120" t="inlineStr">
         <is>
           <t>CMM27</t>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>CTP110</t>
+          <t>OSH110</t>
         </is>
       </c>
     </row>
@@ -11769,32 +11769,32 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CTP120</t>
+          <t>OSH120</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CTP122</t>
+          <t>OSH122</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>CTP124</t>
+          <t>OSH124</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH123</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>CTP121</t>
+          <t>OSH121</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>CTP141</t>
+          <t>OSH141</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -11804,7 +11804,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH164</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -11826,17 +11826,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CTP119</t>
+          <t>OSH119</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CTP122</t>
+          <t>OSH122</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>CTP121</t>
+          <t>OSH121</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -11846,32 +11846,32 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>CTP141</t>
+          <t>OSH48</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>CTP126</t>
+          <t>OSH141</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>CTP135</t>
+          <t>OSH74</t>
         </is>
       </c>
     </row>
@@ -11883,52 +11883,52 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CTP122</t>
+          <t>OSH122</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CTP124</t>
+          <t>OSH124</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>CTP120</t>
+          <t>OSH82</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH120</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH33</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH123</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>CTP119</t>
+          <t>OSH48</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>CTP102</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>CTP145</t>
+          <t>OSH21</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH96</t>
         </is>
       </c>
     </row>
@@ -11940,42 +11940,42 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CTP121</t>
+          <t>OSH121</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>CTP119</t>
+          <t>OSH119</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>CTP124</t>
+          <t>OSH124</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>CTP120</t>
+          <t>OSH120</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH123</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH164</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>CTP157</t>
+          <t>OSH157</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>CTP141</t>
+          <t>OSH141</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH96</t>
         </is>
       </c>
     </row>
@@ -11997,52 +11997,52 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CTP124</t>
+          <t>OSH124</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>CTP122</t>
+          <t>OSH122</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>CTP121</t>
+          <t>OSH121</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>CTP119</t>
+          <t>OSH119</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>CTP120</t>
+          <t>OSH40</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH65</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>CTP107</t>
+          <t>OSH120</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH125</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH107</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>CTP104</t>
+          <t>OSH30</t>
         </is>
       </c>
     </row>
@@ -12054,52 +12054,52 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CTP122</t>
+          <t>OSH122</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>CTP121</t>
+          <t>OSH123</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH121</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>CTP119</t>
+          <t>OSH119</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>CTP120</t>
+          <t>OSH120</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>CTP164</t>
+          <t>OSH164</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>CTP106</t>
+          <t>OSH107</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>CTP107</t>
+          <t>OSH106</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>CTP104</t>
+          <t>OSH104</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>CTP127</t>
+          <t>OSH43</t>
         </is>
       </c>
     </row>
@@ -12111,52 +12111,52 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CTP126</t>
+          <t>OSH126</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>CTP127</t>
+          <t>OSH127</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>CTP128</t>
+          <t>OSH128</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH132</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH51</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH58</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH65</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH139</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH140</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>CMM46</t>
+          <t>OSH29</t>
         </is>
       </c>
     </row>
@@ -12168,52 +12168,52 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH125</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CTP128</t>
+          <t>OSH128</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>CTP127</t>
+          <t>OSH127</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH140</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>CTP120</t>
+          <t>OSH48</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>CTP135</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>CTP159</t>
+          <t>OSH21</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>CTP61</t>
+          <t>OSH74</t>
         </is>
       </c>
     </row>
@@ -12225,52 +12225,52 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CTP126</t>
+          <t>OSH126</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH36</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>CTP105</t>
+          <t>OSH125</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>CTP121</t>
+          <t>OSH105</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>CTP106</t>
+          <t>OSH58</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>CTP128</t>
+          <t>OSH13</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>CTP50</t>
+          <t>OSH121</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH128</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH55</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH59</t>
         </is>
       </c>
     </row>
@@ -12282,52 +12282,52 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CTP136</t>
+          <t>OSH136</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>CTP126</t>
+          <t>OSH126</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH140</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH125</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>CTP105</t>
+          <t>OSH21</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
+          <t>OSH105</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
           <t>ESM7</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>CTP96</t>
-        </is>
-      </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>CTP107</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>CTP127</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>CTP104</t>
+          <t>OSH107</t>
         </is>
       </c>
     </row>
@@ -12339,52 +12339,52 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CTP130</t>
+          <t>OSH130</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>CTP133</t>
+          <t>OSH133</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH134</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>CTP135</t>
+          <t>OSH135</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH131</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH132</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>CTP137</t>
+          <t>OSH137</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>CTP136</t>
+          <t>OSH136</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>CTP141</t>
+          <t>OSH48</t>
         </is>
       </c>
     </row>
@@ -12396,52 +12396,52 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CTP129</t>
+          <t>OSH129</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>CTP133</t>
+          <t>OSH133</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH131</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH132</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>CTP135</t>
+          <t>OSH134</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH135</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>CTP137</t>
+          <t>OSH137</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>CTP136</t>
+          <t>OSH136</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>CTP104</t>
+          <t>OSH109</t>
         </is>
       </c>
     </row>
@@ -12453,52 +12453,52 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CTP130</t>
+          <t>OSH130</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>CTP129</t>
+          <t>OSH129</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH132</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH134</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>CTP133</t>
+          <t>OSH133</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>CTP135</t>
+          <t>OSH135</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>CTP137</t>
+          <t>OSH137</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH109</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>CTP136</t>
+          <t>OSH36</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>CTP141</t>
+          <t>OSH136</t>
         </is>
       </c>
     </row>
@@ -12510,52 +12510,52 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH134</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>CTP133</t>
+          <t>OSH133</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>CTP130</t>
+          <t>OSH130</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>CTP129</t>
+          <t>OSH129</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH131</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>CTP135</t>
+          <t>OSH135</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH125</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>CTP137</t>
+          <t>OSH36</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH139</t>
         </is>
       </c>
     </row>
@@ -12567,52 +12567,52 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CTP129</t>
+          <t>OSH129</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CTP130</t>
+          <t>OSH130</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH134</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH132</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>CTP135</t>
+          <t>OSH135</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH131</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>CTP137</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>CTP136</t>
+          <t>OSH137</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH136</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>CTP138</t>
+          <t>OSH48</t>
         </is>
       </c>
     </row>
@@ -12624,52 +12624,52 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH132</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CTP133</t>
+          <t>OSH133</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>CTP129</t>
+          <t>OSH129</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>CTP130</t>
+          <t>OSH130</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>CTP135</t>
+          <t>OSH135</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH131</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>CTP137</t>
+          <t>OSH48</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>CTP141</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>CTP136</t>
+          <t>OSH137</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH36</t>
         </is>
       </c>
     </row>
@@ -12681,52 +12681,52 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CTP129</t>
+          <t>OSH129</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>CTP130</t>
+          <t>OSH130</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH134</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>CTP133</t>
+          <t>OSH133</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>CTP136</t>
+          <t>OSH136</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH48</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH131</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH132</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>CTP137</t>
+          <t>OSH47</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH88</t>
         </is>
       </c>
     </row>
@@ -12738,52 +12738,52 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CTP128</t>
+          <t>OSH128</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>CTP135</t>
+          <t>OSH135</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>CTP130</t>
+          <t>OSH21</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>CTP105</t>
+          <t>OSH130</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>CTP129</t>
+          <t>OSH105</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH48</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>CTP104</t>
+          <t>OSH129</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH131</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH104</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>ESM7</t>
+          <t>OSH140</t>
         </is>
       </c>
     </row>
@@ -12795,52 +12795,52 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CTP129</t>
+          <t>OSH129</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>CTP130</t>
+          <t>OSH130</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH131</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>CTP135</t>
+          <t>OSH135</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH134</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH132</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>CTP133</t>
+          <t>OSH15</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH133</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>CTP141</t>
+          <t>OSH16</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>CTP105</t>
+          <t>OSH109</t>
         </is>
       </c>
     </row>
@@ -12852,52 +12852,52 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH132</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>CTP139</t>
+          <t>OSH139</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH155</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>CTP155</t>
+          <t>OSH131</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>CTP157</t>
+          <t>OSH77</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH157</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>CTP130</t>
+          <t>OSH6</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>CTP133</t>
+          <t>OSH134</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>CTP129</t>
+          <t>OSH130</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>CMM18</t>
+          <t>OSH5</t>
         </is>
       </c>
     </row>
@@ -12909,52 +12909,52 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CTP132</t>
+          <t>OSH51</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>CTP138</t>
+          <t>OSH38</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>CTP128</t>
+          <t>OSH63</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>CTP107</t>
+          <t>OSH52</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>CTP140</t>
+          <t>OSH40</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH132</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>CTP123</t>
+          <t>OSH125</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH53</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>CTP105</t>
+          <t>OSH65</t>
         </is>
       </c>
     </row>
@@ -12966,52 +12966,52 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CTP126</t>
+          <t>OSH21</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>CTP96</t>
+          <t>OSH33</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>CTP100</t>
+          <t>OSH126</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>CTP128</t>
+          <t>OSH29</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>CTP120</t>
+          <t>OSH96</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>CTP20의 5</t>
+          <t>OSH48</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>CTP135</t>
+          <t>OSH88</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>CTP125</t>
+          <t>OSH128</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>CTP159</t>
+          <t>OSH100</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>CTP136</t>
+          <t>OSH30</t>
         </is>
       </c>
     </row>
@@ -13023,52 +13023,52 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CTP120</t>
+          <t>OSH120</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>CTP109</t>
+          <t>OSH56</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>CTP131</t>
+          <t>OSH109</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>CTP119</t>
+          <t>OSH131</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>CTP134</t>
+          <t>OSH119</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
+          <t>OSH134</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
           <t>ESM29</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>CMM10</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>CTP132</t>
-        </is>
-      </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>CTP112</t>
+          <t>OSH132</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>CTP61</t>
+          <t>OSH8</t>
         </is>
       </c>
     </row>
